--- a/biology/Botanique/Paraderris_elliptica/Paraderris_elliptica.xlsx
+++ b/biology/Botanique/Paraderris_elliptica/Paraderris_elliptica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paraderris elliptica (syn. Derris elliptica[2]) est le nom d'une espèce de plantes légumineuses endémique en Amazonie[3], en Asie du Sud-Est et dans les îles du Pacifique telle que la Nouvelle-Guinée, dont on extrait la roténone.
-Elle appartenait anciennement au genre Derris mais a été renommé récemment en "Paraderris elliptica" [4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paraderris elliptica (syn. Derris elliptica) est le nom d'une espèce de plantes légumineuses endémique en Amazonie, en Asie du Sud-Est et dans les îles du Pacifique telle que la Nouvelle-Guinée, dont on extrait la roténone.
+Elle appartenait anciennement au genre Derris mais a été renommé récemment en "Paraderris elliptica" 
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les racines de cette plante contiennent la roténone, un insecticide fort et un ichtyotoxique (poison pour les poissons).
 Des indigènes de Nouvelle-Guinée et d'Amazonie pratiquent la nivrée, une forme de pêche, en écrasant les racines de Paraderris puis en les jetant à l'eau. Les poissons affaiblis ou tués flottent sur la surface où ils peuvent être facilement péchés.
 En dépit de sa toxicité, le Derris est une source de nourriture par les larves de nombreuses espèces de papillons tel que Batrachedra amydraula.
-Elle est également consommée volontairement par un peuple indigène isolé d'Amazonie, les Suruwahás qui pensent préférable de "mourir en bonne santé"[5].   
+Elle est également consommée volontairement par un peuple indigène isolé d'Amazonie, les Suruwahás qui pensent préférable de "mourir en bonne santé".   
 </t>
         </is>
       </c>
